--- a/findings/sinan_ogan.xlsx
+++ b/findings/sinan_ogan.xlsx
@@ -453,180 +453,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
+          <t>yayın, program, canlı, sun, konuk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, sun, konuk</t>
+          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>oy, millet, buluş, işlem, ver</t>
+          <t>imza, oy, seçim, mart, ver</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, sandık, seçim</t>
+          <t>buluş, millet, oy, imza, seçim</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>türk, milliyetçi, türkiye, millet, siyaset</t>
+          <t>türk, türkiye, milliyetçi, azerbaycan, atatürkçü</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
+          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, bekle, gazi</t>
+          <t>şehit, rahmet, atatürk, gazi, an</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, gazi, allah</t>
+          <t>şehit, rahmet, atatürk, an, gazi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bekle, bugün, saat, gel, buluş</t>
+          <t>türk, gör, oy, milliyetçi, millet</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gel, saat, bekle, bura, bugün</t>
+          <t>türk, bayram, türkiye, millet, atatürk</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, yoğun, dernek</t>
+          <t>teşekkür, başkan, dernek, misafirperverlikleri, sim</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, yoğun, genç</t>
+          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, dernek, misafirperverlikleri, sim</t>
+          <t>sığınmacı, kaçak, gönder, kararname, gel</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, misafirperverlikleri</t>
+          <t>sığınmacı, kaçak, gönder, kararname, vatandaşlık</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>deprem, depremzede, konut, öğrenci, kullan</t>
+          <t>gel, bekle, saat, birazdan, yayın</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>gel, saat, bekle, sizinle, yalnız</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>basın, medya, açıkla, cemiyet, uygula</t>
+          <t>esnaf, cadde, ziyaret, yoğun, buluş</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>basın, açıkla, medya, cemiyet, uygula</t>
+          <t>esnaf, cadde, ziyaret, buluş, genç</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>emekli, hak, polis, maaş, öz</t>
+          <t>öğretmen, hak, polis, emekli, maaş</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>emekli, maaş, polis, hak, düşük</t>
+          <t>öğretmen, emekli, maaş, eğitim, hak</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bayram, acı, çocuk, yıldırım, veysel</t>
+          <t>deprem, depremzede, konut, öğrenci, kullan</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bayram, acı, çerkes, bereket, yıl</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>

--- a/findings/sinan_ogan.xlsx
+++ b/findings/sinan_ogan.xlsx
@@ -453,67 +453,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, sun, konuk</t>
+          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yayın, program, canlı, konuk, sun</t>
+          <t>cumhurbaşkan, aday, ata, ittifak, dr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
+          <t>yayın, program, canlı, sun, konuk</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aday, cumhurbaşkan, ata, ittifak, dr</t>
+          <t>yayın, program, canlı, konuk, sun</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>imza, oy, seçim, mart, ver</t>
+          <t>türk, milliyetçi, türkiye, millet, ver</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>buluş, millet, oy, imza, seçim</t>
+          <t>türk, türkiye, milliyetçi, yüzyıl, millet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>türk, türkiye, milliyetçi, azerbaycan, atatürkçü</t>
+          <t>oy, seçim, güvenlik, seçmen, millet</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>türk, türkiye, yüzyıl, milliyetçi, azerbaycan</t>
+          <t>millet, oy, buluş, sandık, seçim</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, gazi, an</t>
+          <t>şehit, rahmet, atatürk, bekle, gazi</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -521,22 +521,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>şehit, rahmet, atatürk, an, gazi</t>
+          <t>şehit, rahmet, atatürk, an, dönüm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>türk, gör, oy, milliyetçi, millet</t>
+          <t>bugün, gel, bekle, saat, buluş</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>türk, bayram, türkiye, millet, atatürk</t>
+          <t>gel, buluş, saat, bugün, bekle</t>
         </is>
       </c>
     </row>
@@ -547,33 +547,33 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>teşekkür, başkan, muhteşem, dernek, kardeş</t>
+          <t>teşekkür, başkan, dernek, muhteşem, misafirperverlikleri</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sığınmacı, kaçak, gönder, kararname, gel</t>
+          <t>bayram, türk, inadına, kutla, avrupa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sığınmacı, kaçak, gönder, kararname, vatandaşlık</t>
+          <t>bayram, atatürk, türk, kutlu, mustafa</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gel, bekle, saat, birazdan, yayın</t>
+          <t>esnaf, ziyaret, cadde, yoğun, bafra</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,52 +581,52 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gel, saat, bekle, sizinle, yalnız</t>
+          <t>esnaf, cadde, ziyaret, genç, yoğun</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, yoğun, buluş</t>
+          <t>sığınmacı, kaçak, gönder, kararname, kal</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>esnaf, cadde, ziyaret, buluş, genç</t>
+          <t>sığınmacı, kaçak, gönder, kararname, kal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>öğretmen, hak, polis, emekli, maaş</t>
+          <t>deprem, depremzede, konut, öğrenci, kullan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>öğretmen, emekli, maaş, eğitim, hak</t>
+          <t>konut, deprem, depremzede, temel, hastane</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>deprem, depremzede, konut, öğrenci, kullan</t>
+          <t>gül, ışıl, genç, kal, allah</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>konut, deprem, depremzede, temel, hastane</t>
+          <t>iyi, sanatçı, allah, iş, çık</t>
         </is>
       </c>
     </row>
